--- a/TC_bert_model.xlsx
+++ b/TC_bert_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ed/Desktop/TC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ed/Documents/Github/TC_submission_docker/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>drop out rate_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,14 @@
   </si>
   <si>
     <t>registry-intl.cn-shenzhen.aliyuncs.com/tc_comp/tc_comp_submit:model_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same as 7, fullsize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registry-intl.cn-shenzhen.aliyuncs.com/tc_comp/tc_comp_submit:model_7.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -809,6 +817,47 @@
         <v>5</v>
       </c>
     </row>
+    <row r="9" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>7.1</v>
+      </c>
+      <c r="C9">
+        <v>0.2</v>
+      </c>
+      <c r="D9">
+        <v>0.2</v>
+      </c>
+      <c r="E9">
+        <v>0.2</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="L9">
+        <v>0.94599</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TC_bert_model.xlsx
+++ b/TC_bert_model.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ed/Documents/Github/TC_submission_docker/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/di/Documents/GitHub/TC_submission_docker/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F101D94F-9F3F-9F4E-AEE1-E076BE68E891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1180" windowWidth="24280" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="1320" yWindow="1180" windowWidth="24280" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>drop out rate_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,19 +132,11 @@
     <t>registry-intl.cn-shenzhen.aliyuncs.com/tc_comp/tc_comp_submit:model_7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>Same as 7, fullsize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>registry-intl.cn-shenzhen.aliyuncs.com/tc_comp/tc_comp_submit:model_7.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -189,6 +182,7 @@
     <font>
       <sz val="13"/>
       <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -227,15 +221,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -503,11 +500,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,7 +519,7 @@
     <col min="14" max="14" width="19.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -653,7 +650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="85" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -697,7 +694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="85" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>5</v>
       </c>
@@ -735,7 +732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>6</v>
       </c>
@@ -773,7 +770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -805,7 +802,7 @@
         <v>13</v>
       </c>
       <c r="K8">
-        <v>0.94799999999999995</v>
+        <v>0.94669999999999999</v>
       </c>
       <c r="M8">
         <v>0.94610000000000005</v>
@@ -815,47 +812,6 @@
       </c>
       <c r="P8" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9">
-        <v>7.1</v>
-      </c>
-      <c r="C9">
-        <v>0.2</v>
-      </c>
-      <c r="D9">
-        <v>0.2</v>
-      </c>
-      <c r="E9">
-        <v>0.2</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="L9">
-        <v>0.94599</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
